--- a/pxk.xlsx
+++ b/pxk.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Khoi\Downloads\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D29D7746-D605-4CC2-920E-3C55218933B1}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{6A3EF494-E7AF-4849-B6A7-664F80992786}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-103" yWindow="-103" windowWidth="19543" windowHeight="13097" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -341,6 +341,15 @@
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" quotePrefix="1" applyFont="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center"/>
@@ -358,15 +367,6 @@
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
   </cellXfs>
@@ -652,8 +652,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:H50"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A6" zoomScale="73" workbookViewId="0">
-      <selection activeCell="I19" sqref="I19"/>
+    <sheetView tabSelected="1" topLeftCell="A23" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="C45" sqref="C45:D45"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9.15234375" defaultRowHeight="12.9" x14ac:dyDescent="0.35"/>
@@ -673,63 +673,63 @@
       </c>
       <c r="B1" s="2"/>
       <c r="C1" s="2"/>
-      <c r="D1" s="27" t="s">
+      <c r="D1" s="30" t="s">
         <v>0</v>
       </c>
-      <c r="E1" s="27"/>
-      <c r="F1" s="27"/>
+      <c r="E1" s="30"/>
+      <c r="F1" s="30"/>
     </row>
     <row r="2" spans="1:8" ht="45.75" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A2" s="28" t="s">
+      <c r="A2" s="31" t="s">
         <v>19</v>
       </c>
-      <c r="B2" s="29"/>
-      <c r="C2" s="29"/>
-      <c r="D2" s="30" t="s">
+      <c r="B2" s="32"/>
+      <c r="C2" s="32"/>
+      <c r="D2" s="33" t="s">
         <v>1</v>
       </c>
-      <c r="E2" s="31"/>
-      <c r="F2" s="31"/>
+      <c r="E2" s="34"/>
+      <c r="F2" s="34"/>
     </row>
     <row r="3" spans="1:8" ht="18.75" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A3" s="32" t="s">
+      <c r="A3" s="35" t="s">
         <v>2</v>
       </c>
-      <c r="B3" s="32"/>
-      <c r="C3" s="32"/>
-      <c r="D3" s="32"/>
-      <c r="E3" s="32"/>
-      <c r="F3" s="32"/>
+      <c r="B3" s="35"/>
+      <c r="C3" s="35"/>
+      <c r="D3" s="35"/>
+      <c r="E3" s="35"/>
+      <c r="F3" s="35"/>
     </row>
     <row r="4" spans="1:8" ht="15.45" x14ac:dyDescent="0.4">
-      <c r="A4" s="33" t="s">
+      <c r="A4" s="28" t="s">
         <v>20</v>
       </c>
-      <c r="B4" s="33"/>
-      <c r="C4" s="33"/>
-      <c r="D4" s="33"/>
-      <c r="E4" s="33"/>
-      <c r="F4" s="33"/>
+      <c r="B4" s="28"/>
+      <c r="C4" s="28"/>
+      <c r="D4" s="28"/>
+      <c r="E4" s="28"/>
+      <c r="F4" s="28"/>
     </row>
     <row r="5" spans="1:8" ht="15.45" x14ac:dyDescent="0.4">
-      <c r="A5" s="26"/>
-      <c r="B5" s="26"/>
-      <c r="C5" s="26"/>
-      <c r="D5" s="26"/>
-      <c r="E5" s="26"/>
-      <c r="F5" s="26"/>
+      <c r="A5" s="29"/>
+      <c r="B5" s="29"/>
+      <c r="C5" s="29"/>
+      <c r="D5" s="29"/>
+      <c r="E5" s="29"/>
+      <c r="F5" s="29"/>
       <c r="G5" s="2"/>
       <c r="H5" s="2"/>
     </row>
     <row r="6" spans="1:8" ht="15.45" x14ac:dyDescent="0.4">
-      <c r="A6" s="34" t="s">
+      <c r="A6" s="26" t="s">
         <v>3</v>
       </c>
-      <c r="B6" s="34"/>
-      <c r="C6" s="34"/>
-      <c r="D6" s="34"/>
-      <c r="E6" s="34"/>
-      <c r="F6" s="34"/>
+      <c r="B6" s="26"/>
+      <c r="C6" s="26"/>
+      <c r="D6" s="26"/>
+      <c r="E6" s="26"/>
+      <c r="F6" s="26"/>
     </row>
     <row r="7" spans="1:8" ht="15.45" x14ac:dyDescent="0.4">
       <c r="A7" s="2" t="s">
@@ -742,12 +742,12 @@
       </c>
     </row>
     <row r="9" spans="1:8" ht="13.3" thickBot="1" x14ac:dyDescent="0.4">
-      <c r="A9" s="35"/>
-      <c r="B9" s="35"/>
-      <c r="C9" s="35"/>
-      <c r="D9" s="35"/>
-      <c r="E9" s="35"/>
-      <c r="F9" s="35"/>
+      <c r="A9" s="27"/>
+      <c r="B9" s="27"/>
+      <c r="C9" s="27"/>
+      <c r="D9" s="27"/>
+      <c r="E9" s="27"/>
+      <c r="F9" s="27"/>
     </row>
     <row r="10" spans="1:8" ht="23.25" customHeight="1" thickBot="1" x14ac:dyDescent="0.45">
       <c r="A10" s="7" t="s">
@@ -1099,20 +1099,20 @@
       <c r="B42" s="2"/>
       <c r="C42" s="2"/>
       <c r="D42" s="2"/>
-      <c r="E42" s="33"/>
-      <c r="F42" s="33"/>
+      <c r="E42" s="28"/>
+      <c r="F42" s="28"/>
       <c r="G42" s="2"/>
       <c r="H42" s="2"/>
     </row>
     <row r="43" spans="1:8" ht="15.45" x14ac:dyDescent="0.4">
       <c r="A43" s="6"/>
-      <c r="B43" s="34" t="s">
+      <c r="B43" s="26" t="s">
         <v>16</v>
       </c>
-      <c r="C43" s="34"/>
-      <c r="D43" s="34"/>
-      <c r="E43" s="34"/>
-      <c r="F43" s="34"/>
+      <c r="C43" s="26"/>
+      <c r="D43" s="26"/>
+      <c r="E43" s="26"/>
+      <c r="F43" s="26"/>
       <c r="G43" s="2"/>
       <c r="H43" s="2"/>
     </row>
@@ -1129,8 +1129,8 @@
     <row r="45" spans="1:8" ht="15.45" x14ac:dyDescent="0.4">
       <c r="A45" s="5"/>
       <c r="B45" s="2"/>
-      <c r="C45" s="2"/>
-      <c r="D45" s="2"/>
+      <c r="C45" s="28"/>
+      <c r="D45" s="28"/>
       <c r="E45" s="2"/>
       <c r="F45" s="2"/>
       <c r="G45" s="2"/>
@@ -1158,13 +1158,13 @@
     </row>
     <row r="48" spans="1:8" ht="15.45" x14ac:dyDescent="0.4">
       <c r="A48" s="5"/>
-      <c r="B48" s="33" t="s">
+      <c r="B48" s="28" t="s">
         <v>21</v>
       </c>
-      <c r="C48" s="33"/>
-      <c r="D48" s="33"/>
-      <c r="E48" s="33"/>
-      <c r="F48" s="33"/>
+      <c r="C48" s="28"/>
+      <c r="D48" s="28"/>
+      <c r="E48" s="28"/>
+      <c r="F48" s="28"/>
       <c r="G48" s="2"/>
       <c r="H48" s="2"/>
     </row>
@@ -1189,18 +1189,19 @@
       <c r="H50" s="2"/>
     </row>
   </sheetData>
-  <mergeCells count="11">
-    <mergeCell ref="A6:F6"/>
-    <mergeCell ref="A9:F9"/>
-    <mergeCell ref="E42:F42"/>
-    <mergeCell ref="B43:F43"/>
-    <mergeCell ref="B48:F48"/>
+  <mergeCells count="12">
     <mergeCell ref="A5:F5"/>
     <mergeCell ref="D1:F1"/>
     <mergeCell ref="A2:C2"/>
     <mergeCell ref="D2:F2"/>
     <mergeCell ref="A3:F3"/>
     <mergeCell ref="A4:F4"/>
+    <mergeCell ref="A6:F6"/>
+    <mergeCell ref="A9:F9"/>
+    <mergeCell ref="E42:F42"/>
+    <mergeCell ref="B43:F43"/>
+    <mergeCell ref="B48:F48"/>
+    <mergeCell ref="C45:D45"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>

--- a/pxk.xlsx
+++ b/pxk.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="27726"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="28025"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Khoi\Downloads\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Khoi\Desktop\Portfolio\Bo\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{6A3EF494-E7AF-4849-B6A7-664F80992786}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A1A38092-7BD5-4061-ADFE-F8F9D0329830}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-103" yWindow="-103" windowWidth="19543" windowHeight="13097" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="16440" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Template" sheetId="1" r:id="rId1"/>
@@ -341,15 +341,6 @@
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" quotePrefix="1" applyFont="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center"/>
@@ -367,6 +358,15 @@
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
   </cellXfs>
@@ -652,104 +652,104 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:H50"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A23" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="C45" sqref="C45:D45"/>
+    <sheetView tabSelected="1" topLeftCell="A3" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="I18" sqref="I18"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9.15234375" defaultRowHeight="12.9" x14ac:dyDescent="0.35"/>
+  <sheetFormatPr defaultColWidth="9.140625" defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="1" max="1" width="5.3046875" style="3" customWidth="1"/>
-    <col min="2" max="2" width="29.3046875" style="3" customWidth="1"/>
-    <col min="3" max="3" width="12.15234375" style="3" customWidth="1"/>
-    <col min="4" max="4" width="10.69140625" style="3" customWidth="1"/>
-    <col min="5" max="5" width="13.69140625" style="3" customWidth="1"/>
-    <col min="6" max="6" width="20.3828125" style="3" customWidth="1"/>
-    <col min="7" max="16384" width="9.15234375" style="3"/>
+    <col min="1" max="1" width="5.28515625" style="3" customWidth="1"/>
+    <col min="2" max="2" width="29.28515625" style="3" customWidth="1"/>
+    <col min="3" max="3" width="12.140625" style="3" customWidth="1"/>
+    <col min="4" max="4" width="10.7109375" style="3" customWidth="1"/>
+    <col min="5" max="5" width="13.7109375" style="3" customWidth="1"/>
+    <col min="6" max="6" width="20.42578125" style="3" customWidth="1"/>
+    <col min="7" max="16384" width="9.140625" style="3"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:8" ht="15.45" x14ac:dyDescent="0.4">
+    <row r="1" spans="1:8" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A1" s="1" t="s">
         <v>17</v>
       </c>
       <c r="B1" s="2"/>
       <c r="C1" s="2"/>
-      <c r="D1" s="30" t="s">
+      <c r="D1" s="27" t="s">
         <v>0</v>
       </c>
-      <c r="E1" s="30"/>
-      <c r="F1" s="30"/>
-    </row>
-    <row r="2" spans="1:8" ht="45.75" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A2" s="31" t="s">
+      <c r="E1" s="27"/>
+      <c r="F1" s="27"/>
+    </row>
+    <row r="2" spans="1:8" ht="45.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A2" s="28" t="s">
         <v>19</v>
       </c>
-      <c r="B2" s="32"/>
-      <c r="C2" s="32"/>
-      <c r="D2" s="33" t="s">
+      <c r="B2" s="29"/>
+      <c r="C2" s="29"/>
+      <c r="D2" s="30" t="s">
         <v>1</v>
       </c>
-      <c r="E2" s="34"/>
-      <c r="F2" s="34"/>
-    </row>
-    <row r="3" spans="1:8" ht="18.75" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A3" s="35" t="s">
+      <c r="E2" s="31"/>
+      <c r="F2" s="31"/>
+    </row>
+    <row r="3" spans="1:8" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A3" s="32" t="s">
         <v>2</v>
       </c>
-      <c r="B3" s="35"/>
-      <c r="C3" s="35"/>
-      <c r="D3" s="35"/>
-      <c r="E3" s="35"/>
-      <c r="F3" s="35"/>
-    </row>
-    <row r="4" spans="1:8" ht="15.45" x14ac:dyDescent="0.4">
-      <c r="A4" s="28" t="s">
+      <c r="B3" s="32"/>
+      <c r="C3" s="32"/>
+      <c r="D3" s="32"/>
+      <c r="E3" s="32"/>
+      <c r="F3" s="32"/>
+    </row>
+    <row r="4" spans="1:8" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A4" s="33" t="s">
         <v>20</v>
       </c>
-      <c r="B4" s="28"/>
-      <c r="C4" s="28"/>
-      <c r="D4" s="28"/>
-      <c r="E4" s="28"/>
-      <c r="F4" s="28"/>
-    </row>
-    <row r="5" spans="1:8" ht="15.45" x14ac:dyDescent="0.4">
-      <c r="A5" s="29"/>
-      <c r="B5" s="29"/>
-      <c r="C5" s="29"/>
-      <c r="D5" s="29"/>
-      <c r="E5" s="29"/>
-      <c r="F5" s="29"/>
+      <c r="B4" s="33"/>
+      <c r="C4" s="33"/>
+      <c r="D4" s="33"/>
+      <c r="E4" s="33"/>
+      <c r="F4" s="33"/>
+    </row>
+    <row r="5" spans="1:8" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A5" s="26"/>
+      <c r="B5" s="26"/>
+      <c r="C5" s="26"/>
+      <c r="D5" s="26"/>
+      <c r="E5" s="26"/>
+      <c r="F5" s="26"/>
       <c r="G5" s="2"/>
       <c r="H5" s="2"/>
     </row>
-    <row r="6" spans="1:8" ht="15.45" x14ac:dyDescent="0.4">
-      <c r="A6" s="26" t="s">
+    <row r="6" spans="1:8" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A6" s="34" t="s">
         <v>3</v>
       </c>
-      <c r="B6" s="26"/>
-      <c r="C6" s="26"/>
-      <c r="D6" s="26"/>
-      <c r="E6" s="26"/>
-      <c r="F6" s="26"/>
-    </row>
-    <row r="7" spans="1:8" ht="15.45" x14ac:dyDescent="0.4">
+      <c r="B6" s="34"/>
+      <c r="C6" s="34"/>
+      <c r="D6" s="34"/>
+      <c r="E6" s="34"/>
+      <c r="F6" s="34"/>
+    </row>
+    <row r="7" spans="1:8" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A7" s="2" t="s">
         <v>4</v>
       </c>
     </row>
-    <row r="8" spans="1:8" ht="15.45" x14ac:dyDescent="0.4">
+    <row r="8" spans="1:8" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A8" s="2" t="s">
         <v>18</v>
       </c>
     </row>
-    <row r="9" spans="1:8" ht="13.3" thickBot="1" x14ac:dyDescent="0.4">
-      <c r="A9" s="27"/>
-      <c r="B9" s="27"/>
-      <c r="C9" s="27"/>
-      <c r="D9" s="27"/>
-      <c r="E9" s="27"/>
-      <c r="F9" s="27"/>
-    </row>
-    <row r="10" spans="1:8" ht="23.25" customHeight="1" thickBot="1" x14ac:dyDescent="0.45">
+    <row r="9" spans="1:8" ht="13.5" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="A9" s="35"/>
+      <c r="B9" s="35"/>
+      <c r="C9" s="35"/>
+      <c r="D9" s="35"/>
+      <c r="E9" s="35"/>
+      <c r="F9" s="35"/>
+    </row>
+    <row r="10" spans="1:8" ht="23.25" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A10" s="7" t="s">
         <v>5</v>
       </c>
@@ -771,7 +771,7 @@
       <c r="G10" s="6"/>
       <c r="H10" s="6"/>
     </row>
-    <row r="11" spans="1:8" ht="15.9" thickBot="1" x14ac:dyDescent="0.45">
+    <row r="11" spans="1:8" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A11" s="10"/>
       <c r="B11" s="11"/>
       <c r="C11" s="12"/>
@@ -781,7 +781,7 @@
       <c r="G11" s="6"/>
       <c r="H11" s="6"/>
     </row>
-    <row r="12" spans="1:8" ht="15.9" thickBot="1" x14ac:dyDescent="0.45">
+    <row r="12" spans="1:8" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A12" s="14"/>
       <c r="B12" s="15"/>
       <c r="C12" s="16"/>
@@ -791,7 +791,7 @@
       <c r="G12" s="6"/>
       <c r="H12" s="6"/>
     </row>
-    <row r="13" spans="1:8" ht="15.9" thickBot="1" x14ac:dyDescent="0.45">
+    <row r="13" spans="1:8" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A13" s="14"/>
       <c r="B13" s="15"/>
       <c r="C13" s="16"/>
@@ -801,7 +801,7 @@
       <c r="G13" s="6"/>
       <c r="H13" s="6"/>
     </row>
-    <row r="14" spans="1:8" ht="15.9" thickBot="1" x14ac:dyDescent="0.45">
+    <row r="14" spans="1:8" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A14" s="14"/>
       <c r="B14" s="15"/>
       <c r="C14" s="16"/>
@@ -811,7 +811,7 @@
       <c r="G14" s="6"/>
       <c r="H14" s="6"/>
     </row>
-    <row r="15" spans="1:8" ht="15.9" thickBot="1" x14ac:dyDescent="0.45">
+    <row r="15" spans="1:8" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A15" s="14"/>
       <c r="B15" s="15"/>
       <c r="C15" s="16"/>
@@ -821,7 +821,7 @@
       <c r="G15" s="6"/>
       <c r="H15" s="6"/>
     </row>
-    <row r="16" spans="1:8" ht="15.9" thickBot="1" x14ac:dyDescent="0.45">
+    <row r="16" spans="1:8" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A16" s="14"/>
       <c r="B16" s="15"/>
       <c r="C16" s="16"/>
@@ -831,7 +831,7 @@
       <c r="G16" s="6"/>
       <c r="H16" s="6"/>
     </row>
-    <row r="17" spans="1:8" ht="15.9" thickBot="1" x14ac:dyDescent="0.45">
+    <row r="17" spans="1:8" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A17" s="14"/>
       <c r="B17" s="15"/>
       <c r="C17" s="16"/>
@@ -841,7 +841,7 @@
       <c r="G17" s="6"/>
       <c r="H17" s="6"/>
     </row>
-    <row r="18" spans="1:8" ht="15.9" thickBot="1" x14ac:dyDescent="0.45">
+    <row r="18" spans="1:8" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A18" s="14"/>
       <c r="B18" s="15"/>
       <c r="C18" s="16"/>
@@ -851,7 +851,7 @@
       <c r="G18" s="6"/>
       <c r="H18" s="6"/>
     </row>
-    <row r="19" spans="1:8" ht="15.9" thickBot="1" x14ac:dyDescent="0.45">
+    <row r="19" spans="1:8" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A19" s="14"/>
       <c r="B19" s="15"/>
       <c r="C19" s="16"/>
@@ -861,7 +861,7 @@
       <c r="G19" s="6"/>
       <c r="H19" s="6"/>
     </row>
-    <row r="20" spans="1:8" ht="15.9" thickBot="1" x14ac:dyDescent="0.45">
+    <row r="20" spans="1:8" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A20" s="14"/>
       <c r="B20" s="15"/>
       <c r="C20" s="16"/>
@@ -871,7 +871,7 @@
       <c r="G20" s="6"/>
       <c r="H20" s="6"/>
     </row>
-    <row r="21" spans="1:8" ht="15.9" thickBot="1" x14ac:dyDescent="0.45">
+    <row r="21" spans="1:8" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A21" s="14"/>
       <c r="B21" s="15"/>
       <c r="C21" s="16"/>
@@ -881,7 +881,7 @@
       <c r="G21" s="6"/>
       <c r="H21" s="6"/>
     </row>
-    <row r="22" spans="1:8" ht="15.9" thickBot="1" x14ac:dyDescent="0.45">
+    <row r="22" spans="1:8" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A22" s="14"/>
       <c r="B22" s="15"/>
       <c r="C22" s="16"/>
@@ -891,7 +891,7 @@
       <c r="G22" s="6"/>
       <c r="H22" s="6"/>
     </row>
-    <row r="23" spans="1:8" ht="15.9" thickBot="1" x14ac:dyDescent="0.45">
+    <row r="23" spans="1:8" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A23" s="14"/>
       <c r="B23" s="15"/>
       <c r="C23" s="16"/>
@@ -901,7 +901,7 @@
       <c r="G23" s="6"/>
       <c r="H23" s="6"/>
     </row>
-    <row r="24" spans="1:8" ht="15.9" thickBot="1" x14ac:dyDescent="0.45">
+    <row r="24" spans="1:8" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A24" s="14"/>
       <c r="B24" s="15"/>
       <c r="C24" s="16"/>
@@ -911,7 +911,7 @@
       <c r="G24" s="6"/>
       <c r="H24" s="6"/>
     </row>
-    <row r="25" spans="1:8" ht="15.9" thickBot="1" x14ac:dyDescent="0.45">
+    <row r="25" spans="1:8" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A25" s="14"/>
       <c r="B25" s="15"/>
       <c r="C25" s="16"/>
@@ -921,7 +921,7 @@
       <c r="G25" s="6"/>
       <c r="H25" s="6"/>
     </row>
-    <row r="26" spans="1:8" ht="15.9" thickBot="1" x14ac:dyDescent="0.45">
+    <row r="26" spans="1:8" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A26" s="14"/>
       <c r="B26" s="15"/>
       <c r="C26" s="16"/>
@@ -931,7 +931,7 @@
       <c r="G26" s="6"/>
       <c r="H26" s="6"/>
     </row>
-    <row r="27" spans="1:8" ht="15.9" thickBot="1" x14ac:dyDescent="0.45">
+    <row r="27" spans="1:8" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A27" s="14"/>
       <c r="B27" s="15"/>
       <c r="C27" s="16"/>
@@ -941,7 +941,7 @@
       <c r="G27" s="6"/>
       <c r="H27" s="6"/>
     </row>
-    <row r="28" spans="1:8" ht="15.9" thickBot="1" x14ac:dyDescent="0.45">
+    <row r="28" spans="1:8" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A28" s="14"/>
       <c r="B28" s="15"/>
       <c r="C28" s="16"/>
@@ -951,7 +951,7 @@
       <c r="G28" s="6"/>
       <c r="H28" s="6"/>
     </row>
-    <row r="29" spans="1:8" ht="15.9" thickBot="1" x14ac:dyDescent="0.45">
+    <row r="29" spans="1:8" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A29" s="14"/>
       <c r="B29" s="15"/>
       <c r="C29" s="16"/>
@@ -961,7 +961,7 @@
       <c r="G29" s="6"/>
       <c r="H29" s="6"/>
     </row>
-    <row r="30" spans="1:8" ht="15.9" thickBot="1" x14ac:dyDescent="0.45">
+    <row r="30" spans="1:8" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A30" s="14"/>
       <c r="B30" s="15"/>
       <c r="C30" s="16"/>
@@ -971,7 +971,7 @@
       <c r="G30" s="6"/>
       <c r="H30" s="6"/>
     </row>
-    <row r="31" spans="1:8" ht="15.9" thickBot="1" x14ac:dyDescent="0.45">
+    <row r="31" spans="1:8" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A31" s="14"/>
       <c r="B31" s="15"/>
       <c r="C31" s="16"/>
@@ -981,7 +981,7 @@
       <c r="G31" s="6"/>
       <c r="H31" s="6"/>
     </row>
-    <row r="32" spans="1:8" ht="15.9" thickBot="1" x14ac:dyDescent="0.45">
+    <row r="32" spans="1:8" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A32" s="14"/>
       <c r="B32" s="15"/>
       <c r="C32" s="16"/>
@@ -991,7 +991,7 @@
       <c r="G32" s="6"/>
       <c r="H32" s="6"/>
     </row>
-    <row r="33" spans="1:8" ht="15.9" thickBot="1" x14ac:dyDescent="0.45">
+    <row r="33" spans="1:8" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A33" s="14"/>
       <c r="B33" s="15"/>
       <c r="C33" s="16"/>
@@ -1001,7 +1001,7 @@
       <c r="G33" s="6"/>
       <c r="H33" s="6"/>
     </row>
-    <row r="34" spans="1:8" ht="15.9" thickBot="1" x14ac:dyDescent="0.45">
+    <row r="34" spans="1:8" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A34" s="14"/>
       <c r="B34" s="15"/>
       <c r="C34" s="16"/>
@@ -1011,7 +1011,7 @@
       <c r="G34" s="6"/>
       <c r="H34" s="6"/>
     </row>
-    <row r="35" spans="1:8" ht="15.9" thickBot="1" x14ac:dyDescent="0.45">
+    <row r="35" spans="1:8" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A35" s="14"/>
       <c r="B35" s="15"/>
       <c r="C35" s="16"/>
@@ -1021,7 +1021,7 @@
       <c r="G35" s="6"/>
       <c r="H35" s="6"/>
     </row>
-    <row r="36" spans="1:8" ht="15.9" thickBot="1" x14ac:dyDescent="0.45">
+    <row r="36" spans="1:8" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A36" s="14"/>
       <c r="B36" s="15"/>
       <c r="C36" s="16"/>
@@ -1031,7 +1031,7 @@
       <c r="G36" s="6"/>
       <c r="H36" s="6"/>
     </row>
-    <row r="37" spans="1:8" ht="15.9" thickBot="1" x14ac:dyDescent="0.45">
+    <row r="37" spans="1:8" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A37" s="14"/>
       <c r="B37" s="18" t="s">
         <v>11</v>
@@ -1046,7 +1046,7 @@
       <c r="G37" s="2"/>
       <c r="H37" s="2"/>
     </row>
-    <row r="38" spans="1:8" ht="15.45" x14ac:dyDescent="0.4">
+    <row r="38" spans="1:8" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A38" s="4"/>
       <c r="B38" s="4"/>
       <c r="C38" s="4"/>
@@ -1056,7 +1056,7 @@
       <c r="G38" s="2"/>
       <c r="H38" s="2"/>
     </row>
-    <row r="39" spans="1:8" ht="15.45" x14ac:dyDescent="0.4">
+    <row r="39" spans="1:8" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A39" s="4"/>
       <c r="B39" s="2" t="s">
         <v>12</v>
@@ -1070,7 +1070,7 @@
       <c r="G39" s="2"/>
       <c r="H39" s="2"/>
     </row>
-    <row r="40" spans="1:8" ht="15.45" x14ac:dyDescent="0.4">
+    <row r="40" spans="1:8" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A40" s="4"/>
       <c r="B40" s="2" t="s">
         <v>14</v>
@@ -1082,7 +1082,7 @@
       <c r="G40" s="2"/>
       <c r="H40" s="2"/>
     </row>
-    <row r="41" spans="1:8" ht="15.45" x14ac:dyDescent="0.4">
+    <row r="41" spans="1:8" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A41" s="23"/>
       <c r="B41" s="24" t="s">
         <v>15</v>
@@ -1094,29 +1094,29 @@
       <c r="G41" s="2"/>
       <c r="H41" s="2"/>
     </row>
-    <row r="42" spans="1:8" ht="15.45" x14ac:dyDescent="0.4">
+    <row r="42" spans="1:8" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A42" s="4"/>
       <c r="B42" s="2"/>
       <c r="C42" s="2"/>
       <c r="D42" s="2"/>
-      <c r="E42" s="28"/>
-      <c r="F42" s="28"/>
+      <c r="E42" s="33"/>
+      <c r="F42" s="33"/>
       <c r="G42" s="2"/>
       <c r="H42" s="2"/>
     </row>
-    <row r="43" spans="1:8" ht="15.45" x14ac:dyDescent="0.4">
+    <row r="43" spans="1:8" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A43" s="6"/>
-      <c r="B43" s="26" t="s">
+      <c r="B43" s="34" t="s">
         <v>16</v>
       </c>
-      <c r="C43" s="26"/>
-      <c r="D43" s="26"/>
-      <c r="E43" s="26"/>
-      <c r="F43" s="26"/>
+      <c r="C43" s="34"/>
+      <c r="D43" s="34"/>
+      <c r="E43" s="34"/>
+      <c r="F43" s="34"/>
       <c r="G43" s="2"/>
       <c r="H43" s="2"/>
     </row>
-    <row r="44" spans="1:8" ht="15.45" x14ac:dyDescent="0.4">
+    <row r="44" spans="1:8" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A44" s="5"/>
       <c r="B44" s="2"/>
       <c r="C44" s="2"/>
@@ -1126,17 +1126,17 @@
       <c r="G44" s="2"/>
       <c r="H44" s="2"/>
     </row>
-    <row r="45" spans="1:8" ht="15.45" x14ac:dyDescent="0.4">
+    <row r="45" spans="1:8" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A45" s="5"/>
       <c r="B45" s="2"/>
-      <c r="C45" s="28"/>
-      <c r="D45" s="28"/>
+      <c r="C45" s="33"/>
+      <c r="D45" s="33"/>
       <c r="E45" s="2"/>
       <c r="F45" s="2"/>
       <c r="G45" s="2"/>
       <c r="H45" s="2"/>
     </row>
-    <row r="46" spans="1:8" ht="15.45" x14ac:dyDescent="0.4">
+    <row r="46" spans="1:8" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A46" s="5"/>
       <c r="B46" s="2"/>
       <c r="C46" s="2"/>
@@ -1146,7 +1146,7 @@
       <c r="G46" s="2"/>
       <c r="H46" s="2"/>
     </row>
-    <row r="47" spans="1:8" ht="15.45" x14ac:dyDescent="0.4">
+    <row r="47" spans="1:8" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A47" s="5"/>
       <c r="B47" s="2"/>
       <c r="C47" s="2"/>
@@ -1156,19 +1156,19 @@
       <c r="G47" s="2"/>
       <c r="H47" s="2"/>
     </row>
-    <row r="48" spans="1:8" ht="15.45" x14ac:dyDescent="0.4">
+    <row r="48" spans="1:8" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A48" s="5"/>
-      <c r="B48" s="28" t="s">
+      <c r="B48" s="33" t="s">
         <v>21</v>
       </c>
-      <c r="C48" s="28"/>
-      <c r="D48" s="28"/>
-      <c r="E48" s="28"/>
-      <c r="F48" s="28"/>
+      <c r="C48" s="33"/>
+      <c r="D48" s="33"/>
+      <c r="E48" s="33"/>
+      <c r="F48" s="33"/>
       <c r="G48" s="2"/>
       <c r="H48" s="2"/>
     </row>
-    <row r="49" spans="1:8" ht="15.45" x14ac:dyDescent="0.4">
+    <row r="49" spans="1:8" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A49" s="5"/>
       <c r="B49" s="2"/>
       <c r="C49" s="2"/>
@@ -1178,7 +1178,7 @@
       <c r="G49" s="2"/>
       <c r="H49" s="2"/>
     </row>
-    <row r="50" spans="1:8" ht="15.45" x14ac:dyDescent="0.4">
+    <row r="50" spans="1:8" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A50" s="4"/>
       <c r="B50" s="2"/>
       <c r="C50" s="2"/>
@@ -1190,18 +1190,18 @@
     </row>
   </sheetData>
   <mergeCells count="12">
+    <mergeCell ref="A6:F6"/>
+    <mergeCell ref="A9:F9"/>
+    <mergeCell ref="E42:F42"/>
+    <mergeCell ref="B43:F43"/>
+    <mergeCell ref="B48:F48"/>
+    <mergeCell ref="C45:D45"/>
     <mergeCell ref="A5:F5"/>
     <mergeCell ref="D1:F1"/>
     <mergeCell ref="A2:C2"/>
     <mergeCell ref="D2:F2"/>
     <mergeCell ref="A3:F3"/>
     <mergeCell ref="A4:F4"/>
-    <mergeCell ref="A6:F6"/>
-    <mergeCell ref="A9:F9"/>
-    <mergeCell ref="E42:F42"/>
-    <mergeCell ref="B43:F43"/>
-    <mergeCell ref="B48:F48"/>
-    <mergeCell ref="C45:D45"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
